--- a/pages/Templates/Stakeholder_Input_Vorlage_V1_Copy.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1_Copy.xlsx
@@ -3009,6 +3009,21 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hochwasserschutzmaßnahmen</t>
+        </is>
+      </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="G2" s="13" t="inlineStr">
